--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 22776-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 10617-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45721.61657407408</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 22776-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45448.47032407407</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Grönvit nattviol</t>
-        </is>
-      </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44543</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1136,41 +1136,41 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,14 +1262,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.1</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1316,31 +1316,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45237</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1451,22 +1451,17 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1481,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1491,45 +1486,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45118</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1541,19 +1540,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1571,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1581,31 +1575,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
@@ -1619,7 +1613,7 @@
         <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,14 +1691,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1716,11 +1710,16 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1732,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1744,52 +1743,52 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,16 +1801,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1826,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1836,49 +1835,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,8 +1885,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44977</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10.2</v>
+        <v>8.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2265,8 +2265,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>11.7</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44846</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2360,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45065</v>
+        <v>45772</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2417,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>11.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2474,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45824</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2531,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>44749</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2588,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44378</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2607,8 +2612,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>20.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2645,14 +2655,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2675,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2702,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2737,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>20.7</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2764,14 +2774,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2794,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2821,14 +2831,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45104</v>
+        <v>44846</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2851,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2878,14 +2888,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44909</v>
+        <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2908,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2935,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2992,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45118</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3011,13 +3021,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>10.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44649</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3111,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44749</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3168,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3225,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45257</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.9</v>
+        <v>6.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3282,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45237</v>
+        <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,13 +3306,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45189</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45749</v>
+        <v>44909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45105</v>
+        <v>44649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45210</v>
+        <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,8 +3534,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3572,14 +3577,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45036</v>
+        <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3592,7 +3597,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3629,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45772</v>
+        <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3649,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3686,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45824</v>
+        <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3706,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3743,14 +3748,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3762,13 +3767,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45721.61657407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>45772</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45824</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44749</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45517.42064814815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45847.39517361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44378</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44846</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45695.64231481482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>45985.48332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>45985.66210648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>45985.48895833334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45988.60881944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45721.61657407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>45772</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45824</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44749</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45517.42064814815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45847.39517361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44378</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44846</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45695.64231481482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>45985.48332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>45985.66210648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>45985.48895833334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45988.60881944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 22776-2024</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45448.47032407407</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 22776-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45448.47032407407</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 10617-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45721.61657407408</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45237</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,14 +1111,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1127,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1136,41 +1141,41 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1184,7 +1189,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,14 +1267,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44543</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,16 +1287,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1306,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1316,45 +1321,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,16 +1376,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1391,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1401,45 +1410,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1452,10 +1461,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1486,49 +1495,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,14 +1545,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1565,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1575,45 +1585,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44385</v>
+        <v>44543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1626,13 +1636,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1641,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1650,55 +1660,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45118</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1710,19 +1720,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1750,45 +1755,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>44385</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1801,13 +1806,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1825,55 +1830,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45237</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1885,19 +1890,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1915,41 +1915,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>44846</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45257</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45237</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>20.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2365,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45772</v>
+        <v>45104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45824</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>11.7</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45824</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44749</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>44909</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,13 +2612,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>20.7</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2655,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45104</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2674,8 +2669,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,13 +2731,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2774,14 +2769,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44378</v>
+        <v>44977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2831,14 +2826,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44846</v>
+        <v>45065</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2851,7 +2846,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45065</v>
+        <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,8 +2902,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44977</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>44649</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>44749</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45036</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45257</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44909</v>
+        <v>45237</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,8 +3420,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3463,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44649</v>
+        <v>45189</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3483,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3520,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45118</v>
+        <v>45749</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,13 +3539,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3577,14 +3577,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45749</v>
+        <v>45105</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45105</v>
+        <v>45210</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45210</v>
+        <v>45036</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3748,14 +3748,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45189</v>
+        <v>45772</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 22776-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 10617-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45721.61657407408</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 22776-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45448.47032407407</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Grönvit nattviol</t>
-        </is>
-      </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45237</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,19 +1111,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1151,45 +1146,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,16 +1197,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1226,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1236,45 +1231,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1287,7 +1282,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1296,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1314,56 +1309,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1376,7 +1367,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1410,45 +1401,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,10 +1452,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1495,45 +1486,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45118</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,19 +1540,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1585,45 +1575,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44543</v>
+        <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1636,13 +1626,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1660,55 +1650,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1720,14 +1710,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1755,45 +1750,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44385</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1806,13 +1801,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1830,55 +1825,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,14 +1885,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1915,41 +1915,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44846</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44378</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>11.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2265,13 +2265,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>20.7</v>
+        <v>10.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2308,14 +2303,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45189</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2328,7 +2323,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2360,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45104</v>
+        <v>45257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2380,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>8.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2417,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45824</v>
+        <v>45237</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2441,8 +2436,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45772</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.7</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44909</v>
+        <v>45824</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>44749</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,13 +2669,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2707,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,8 +2726,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>20.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2769,14 +2769,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44977</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,8 +2788,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2826,14 +2831,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45065</v>
+        <v>45104</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2846,7 +2851,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2883,14 +2888,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45118</v>
+        <v>44378</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2902,13 +2907,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>44846</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44649</v>
+        <v>45065</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>45985.48332175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44749</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45257</v>
+        <v>45036</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45237</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,13 +3420,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3463,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45189</v>
+        <v>44909</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3483,7 +3478,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3520,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45749</v>
+        <v>44649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3540,7 +3535,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3577,14 +3572,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45105</v>
+        <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3596,8 +3591,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45210</v>
+        <v>45749</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45036</v>
+        <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3748,14 +3748,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45772</v>
+        <v>45210</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 22776-2024</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45448.47032407407</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 22776-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45448.47032407407</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 10617-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45721.61657407408</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>45237</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,14 +1111,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1146,45 +1151,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>44385</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1197,7 +1202,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1206,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1224,52 +1229,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,7 +1287,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1291,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1309,52 +1314,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44543</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,7 +1376,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1401,45 +1410,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1451,17 +1460,22 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1486,49 +1500,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1541,13 +1551,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1556,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1565,55 +1575,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44385</v>
+        <v>44543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1626,13 +1636,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1641,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1650,55 +1660,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45118</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1710,16 +1720,11 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1750,45 +1755,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1801,16 +1806,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1825,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1835,45 +1840,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45237</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1885,13 +1890,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>7.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2018,14 +2018,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 56855-2021</t>
+          <t>A 68005-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44481</v>
+        <v>44525</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2075,14 +2075,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 68005-2021</t>
+          <t>A 56855-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44525</v>
+        <v>44481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45065</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>44846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2265,8 +2265,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>10.2</v>
+        <v>20.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45189</v>
+        <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2360,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45257</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8.9</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2417,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45237</v>
+        <v>45104</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2434,11 +2439,6 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>LUND</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45772</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45772</v>
+        <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,8 +2555,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45824</v>
+        <v>44649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2655,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44749</v>
+        <v>45824</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2675,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2707,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>44909</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,13 +2731,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>20.7</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2769,14 +2769,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45189</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,13 +2788,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2831,14 +2826,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45104</v>
+        <v>45749</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2851,7 +2846,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44378</v>
+        <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2908,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44846</v>
+        <v>45210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2960,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45065</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3021,8 +3016,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44977</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>44749</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45257</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45237</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3306,8 +3306,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3349,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45036</v>
+        <v>44977</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3369,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3406,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45036</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3458,14 +3463,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44909</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3483,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>10.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3520,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44649</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3535,7 +3540,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>11.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3572,14 +3577,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45118</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3591,13 +3596,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45749</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45105</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3748,14 +3748,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45210</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 22776-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 10617-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45721.61657407408</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 26984-2022</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44740.72620370371</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 22776-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45448.47032407407</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45237</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,19 +1111,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1132,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1141,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44385</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,10 +1197,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1217,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1226,55 +1221,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1287,16 +1282,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1311,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1321,49 +1316,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1376,16 +1367,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1400,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1410,45 +1401,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45118</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1460,19 +1455,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1490,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1500,45 +1490,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1551,22 +1541,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1578,52 +1568,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44543</v>
+        <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1636,13 +1626,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1660,55 +1650,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1720,11 +1710,16 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1745,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1755,45 +1750,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1806,16 +1801,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1830,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1840,45 +1835,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,8 +1885,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>7.1</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2018,14 +2018,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 68005-2021</t>
+          <t>A 56855-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44525</v>
+        <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2075,14 +2075,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56855-2021</t>
+          <t>A 68005-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44481</v>
+        <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45065</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44846</v>
+        <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20.7</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2308,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44378</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45104</v>
+        <v>45772</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45772</v>
+        <v>45824</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45118</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,13 +2555,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44649</v>
+        <v>44749</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2613,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2655,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45824</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2674,8 +2669,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44909</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,8 +2731,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>20.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2769,14 +2774,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45189</v>
+        <v>45104</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2789,7 +2794,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2826,14 +2831,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45749</v>
+        <v>44378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2846,7 +2851,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2883,14 +2888,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45105</v>
+        <v>44846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2908,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2940,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45210</v>
+        <v>45065</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2960,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>44977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3016,13 +3021,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44749</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45257</v>
+        <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45237</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3306,13 +3306,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3349,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44977</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3369,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3406,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45036</v>
+        <v>44909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3426,7 +3421,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3463,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>44649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3483,7 +3478,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3520,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3539,8 +3534,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3577,14 +3577,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3748,14 +3748,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,14 +835,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 26984-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -894,41 +894,41 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26984-2022</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44740.72620370371</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -980,27 +980,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1136,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1221,55 +1221,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44543</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,16 +1282,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1316,45 +1316,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1401,49 +1401,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1456,16 +1452,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1480,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1490,45 +1486,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1575,31 +1575,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,14 +1691,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45118</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1710,19 +1710,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1750,45 +1745,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45118</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,14 +1795,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1835,31 +1835,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45772</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>11.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45824</v>
+        <v>45772</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45824</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.7</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44749</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,8 +2612,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2655,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>44749</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,13 +2674,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>45517.42064814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>45104</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2888,14 +2888,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44846</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45065</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>9.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44977</v>
+        <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45065</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45036</v>
+        <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>44909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45721.61657407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,14 +1177,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1224,52 +1224,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,22 +1282,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1309,38 +1309,38 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1606,14 +1606,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44385</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1626,13 +1626,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1650,55 +1650,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>44385</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1735,41 +1735,41 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
         <v>45118</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45695.64231481482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45772</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45824</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,13 +2612,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>9.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2655,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44749</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2670,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2707,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45824</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,13 +2726,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>20.7</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2774,14 +2764,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45104</v>
+        <v>44749</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2794,7 +2784,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2831,14 +2821,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44378</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,8 +2840,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,8 +2902,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>20.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44846</v>
+        <v>45104</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>44378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>44846</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>45065</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44649</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 22776-2024</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45448.47032407407</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 22776-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45448.47032407407</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 10617-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45721.61657407408</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,14 +1262,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1281,14 +1281,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1297,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1306,55 +1311,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44543</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,16 +1372,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1391,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1401,45 +1406,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1452,16 +1461,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1476,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1486,49 +1495,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1541,7 +1546,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,45 +1580,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1625,14 +1630,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1650,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1660,45 +1670,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44385</v>
+        <v>44543</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1711,13 +1721,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1726,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1735,55 +1745,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45118</v>
+        <v>44385</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1795,13 +1805,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1828,52 +1833,52 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45237</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1885,19 +1890,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1915,41 +1915,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>44846</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45257</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45237</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2265,13 +2265,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>11.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2308,14 +2303,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2328,7 +2323,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10.2</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2360,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45772</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2380,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2417,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2441,8 +2436,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>11.7</v>
+        <v>20.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45772</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45104</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45824</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>45985.48895833334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,14 +2707,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45824</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2764,14 +2764,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44749</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2821,14 +2821,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2840,13 +2840,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2883,14 +2878,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2908,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>20.7</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>44909</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2960,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45104</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3017,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3054,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44378</v>
+        <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3116,14 +3111,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44846</v>
+        <v>45065</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3131,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3168,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45065</v>
+        <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3192,8 +3187,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44977</v>
+        <v>44649</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45036</v>
+        <v>44749</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44909</v>
+        <v>45257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44649</v>
+        <v>45237</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3477,8 +3477,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3520,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45118</v>
+        <v>45189</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,13 +3539,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3748,14 +3748,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45189</v>
+        <v>45036</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 22776-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 10617-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45721.61657407408</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 22776-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45448.47032407407</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Grönvit nattviol</t>
-        </is>
-      </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1136,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1197,16 +1197,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1231,45 +1231,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45237</v>
+        <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1281,13 +1281,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1321,45 +1316,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1372,10 +1367,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1406,49 +1401,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1461,16 +1452,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1485,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1495,45 +1486,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1541,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1580,45 +1575,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45118</v>
+        <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,13 +1625,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1663,52 +1653,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44543</v>
+        <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1720,14 +1710,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1755,45 +1750,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44385</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1806,13 +1801,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1830,55 +1825,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,14 +1885,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1915,41 +1915,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44846</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10.2</v>
+        <v>8.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2265,8 +2265,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>11.7</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44378</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2360,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45772</v>
+        <v>45824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2417,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2436,13 +2441,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>20.7</v>
+        <v>11.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>44749</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45104</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,8 +2555,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>20.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45824</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,8 +2617,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2660,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2680,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2707,14 +2717,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>44378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2737,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2764,14 +2774,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2794,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2821,14 +2831,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2851,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>10.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2878,14 +2888,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2897,13 +2907,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2940,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44909</v>
+        <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2960,7 +2965,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3017,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44977</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3111,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45065</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3168,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45118</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3187,13 +3192,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>6.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44649</v>
+        <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44749</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>44909</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45257</v>
+        <v>44649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 9889-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45237</v>
+        <v>46073.368125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3477,13 +3477,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3520,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45189</v>
+        <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3539,8 +3534,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,17 +3745,17 @@
       </c>
       <c r="R48" s="2" t="inlineStr"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45036</v>
+        <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3801,6 +3801,63 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A 20057-2025</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45721.61657407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>45824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44749</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>45517.42064814815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45847.39517361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>45695.64231481482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45985.48332175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>45985.66210648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>45985.48895833334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>45988.60881944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44909</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>46073.368125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45772</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45721.61657407408</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45373.69222222222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44543</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>45824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45673.49231481482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44749</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>45517.42064814815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>45847.39517361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>44378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>45695.64231481482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45985.48332175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>45985.66210648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>45985.48895833334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>45988.60881944445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45036</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44909</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44649</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>46073.368125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45210</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45772</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 22776-2024</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45448.47032407407</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 22776-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45448.47032407407</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 10617-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45721.61657407408</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,11 +1111,16 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1127,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1139,52 +1144,52 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1197,13 +1202,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1231,45 +1236,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44543</v>
+        <v>45237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1281,8 +1286,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1316,45 +1326,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,16 +1377,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1391,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1401,45 +1411,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1452,10 +1462,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1486,49 +1496,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>44385</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1541,13 +1547,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1556,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1565,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44385</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1626,10 +1632,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,45 +1666,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45118</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1710,19 +1716,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1750,45 +1751,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1801,16 +1802,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1825,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1835,45 +1836,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45237</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1885,13 +1890,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2151,8 +2151,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>20.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2194,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45257</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2214,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.9</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2251,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45237</v>
+        <v>45104</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2263,11 +2268,6 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>LUND</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2308,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>44846</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45824</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>11.7</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44749</v>
+        <v>44378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>44909</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,13 +2555,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>20.7</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45065</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2617,13 +2612,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2660,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45104</v>
+        <v>45118</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,8 +2669,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2717,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44378</v>
+        <v>44749</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2737,7 +2732,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2774,14 +2769,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44846</v>
+        <v>44649</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2794,7 +2789,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2831,14 +2826,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2851,7 +2846,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>10.2</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45065</v>
+        <v>45257</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2908,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>8.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44977</v>
+        <v>45237</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2964,8 +2959,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>10.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45189</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45749</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45036</v>
+        <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45210</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44909</v>
+        <v>45036</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44649</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3458,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9889-2026</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46073.368125</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45118</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3534,13 +3534,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3577,14 +3572,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45749</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3597,7 +3592,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3629,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45105</v>
+        <v>45772</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3649,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3686,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45210</v>
+        <v>45824</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3711,7 +3706,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3748,14 +3743,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45189</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3767,8 +3762,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3805,14 +3805,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 9889-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45772</v>
+        <v>46073.368125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 22776-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 10617-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45721.61657407408</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lökgroda
 Strandpadda</t>
         </is>
       </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 22776-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45448.47032407407</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Grönvit nattviol</t>
-        </is>
-      </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45118</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,16 +1111,11 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1141,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,45 +1146,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44543</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,16 +1197,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1226,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1236,45 +1231,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45237</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,19 +1281,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1307,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1316,55 +1306,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>44543</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1377,13 +1367,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1411,45 +1401,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,10 +1452,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,45 +1486,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44385</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1547,13 +1541,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1562,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1571,55 +1565,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>44385</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,10 +1626,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,45 +1660,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45118</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1716,14 +1710,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1741,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1751,45 +1750,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,16 +1801,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1826,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1836,49 +1835,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,8 +1885,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2151,13 +2151,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>20.7</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2194,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45257</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2214,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>8.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2251,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45104</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2271,7 +2266,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2308,14 +2303,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44846</v>
+        <v>45237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2327,8 +2322,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>11.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44977</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44378</v>
+        <v>45772</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44909</v>
+        <v>45824</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45065</v>
+        <v>44749</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45118</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44749</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,8 +2731,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>20.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2769,14 +2774,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44649</v>
+        <v>45104</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2789,7 +2794,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2826,14 +2831,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>44378</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2846,7 +2851,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2883,14 +2888,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45257</v>
+        <v>44846</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2908,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.9</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2940,14 +2945,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45237</v>
+        <v>45065</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2959,13 +2964,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.2</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3116,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45189</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45749</v>
+        <v>44977</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45105</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45210</v>
+        <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45036</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 9889-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>46073.368125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>44909</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>44649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3572,14 +3572,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3591,8 +3591,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3629,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45772</v>
+        <v>45749</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3649,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3686,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45824</v>
+        <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3706,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3743,14 +3748,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45210</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3762,13 +3767,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3805,14 +3805,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9889-2026</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46073.368125</v>
+        <v>45189</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,14 +835,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 26984-2022</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44740.72620370371</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -894,41 +894,41 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 10617-2025</t>
+          <t>A 26984-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45721.61657407408</v>
+        <v>44740.72620370371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
@@ -980,27 +980,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1136,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 55145-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1196,17 +1196,22 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1221,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1231,31 +1236,31 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
         <v/>
       </c>
     </row>
@@ -1269,7 +1274,7 @@
         <v>45373.69222222222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,14 +1352,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44543</v>
+        <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1366,14 +1371,19 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1391,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1401,45 +1411,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>44543</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1452,16 +1462,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1476,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1486,49 +1496,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1541,13 +1547,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,45 +1581,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44385</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1626,7 +1632,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1635,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1653,52 +1659,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45118</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1710,22 +1716,17 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1750,45 +1751,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1801,7 +1806,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1835,45 +1840,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55145-2023</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45237</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1885,13 +1890,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>7.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 55145-2023 artfynd.xlsx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 55145-2023 karta.png", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 55145-2023 FSC-klagomål.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 55145-2023 FSC-klagomål mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 55145-2023 tillsynsbegäran.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 55145-2023 tillsynsbegäran mail.docx", "A 55145-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45257</v>
+        <v>44846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.9</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45210</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10.2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2303,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45237</v>
+        <v>44909</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2322,13 +2322,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2365,14 +2360,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2385,7 +2380,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.7</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2422,14 +2417,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45036</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2442,7 +2437,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2479,14 +2474,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45772</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2499,7 +2494,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2536,14 +2531,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45824</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,8 +2550,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>20.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44749</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45104</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2669,13 +2669,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2707,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>44977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,13 +2726,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>20.7</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2774,14 +2764,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45104</v>
+        <v>45118</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2793,8 +2783,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2831,14 +2826,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44378</v>
+        <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2851,7 +2846,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44846</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2908,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>10.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2945,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45065</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2965,7 +2960,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>11.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45065</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3017,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3054,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>45772</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3074,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>9.5</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3116,14 +3111,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3136,7 +3131,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3173,14 +3168,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44977</v>
+        <v>44749</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3188,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3225,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3245,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3282,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45036</v>
+        <v>45257</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3302,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3339,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45237</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3363,8 +3358,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9889-2026</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46073.368125</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,8 +3420,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3463,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44909</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3483,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3520,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44649</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3535,7 +3540,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3572,14 +3577,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45118</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3591,13 +3596,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45749</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45105</v>
+        <v>45189</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3748,14 +3748,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45210</v>
+        <v>45749</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3805,14 +3805,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 9889-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45189</v>
+        <v>46073.368125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,14 +749,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 22776-2024</t>
+          <t>A 10617-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45448.47032407407</v>
+        <v>45721.61657407408</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -803,204 +803,204 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 26984-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44740.72620370371</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Lökgroda
+Strandpadda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 22776-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45448.47032407407</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 22776-2024 artfynd.xlsx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 22776-2024 karta.png", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 22776-2024 FSC-klagomål.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 22776-2024 FSC-klagomål mail.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 22776-2024 tillsynsbegäran.docx", "A 22776-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 22776-2024 tillsynsbegäran mail.docx", "A 22776-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 10617-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45721.61657407408</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 10617-2025 artfynd.xlsx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 10617-2025 karta.png", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 10617-2025 FSC-klagomål.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 10617-2025 FSC-klagomål mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 10617-2025 tillsynsbegäran.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 10617-2025 tillsynsbegäran mail.docx", "A 10617-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 26984-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44740.72620370371</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Lökgroda
-Strandpadda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 26984-2022 artfynd.xlsx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 26984-2022 karta.png", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 26984-2022 FSC-klagomål.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 26984-2022 FSC-klagomål mail.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 26984-2022 tillsynsbegäran.docx", "A 26984-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 26984-2022 tillsynsbegäran mail.docx", "A 26984-2022")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,14 +1092,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 35443-2021</t>
+          <t>A 39260-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44385</v>
+        <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1136,41 +1136,41 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Klubbfibbla</t>
+          <t>Skogsödla</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
         <v/>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 11732-2024</t>
+          <t>A 4746-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45373.69222222222</v>
+        <v>45688.46011574074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1314,52 +1314,56 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Dvärgjohannesört</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31764-2023</t>
+          <t>A 4816-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45118</v>
+        <v>45688.62052083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1371,19 +1375,14 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1401,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1411,45 +1410,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skorpdyna</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 72269-2021</t>
+          <t>A 4792-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44543</v>
+        <v>45688.57549768518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1462,16 +1461,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1486,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1496,45 +1495,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Stor häxört</t>
+          <t>Oxtungssvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 39260-2025</t>
+          <t>A 31764-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45889.37043981482</v>
+        <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,11 +1545,16 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1571,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1581,45 +1585,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Skogsödla</t>
+          <t>Skorpdyna</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 39260-2025 artfynd.xlsx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 31764-2023 artfynd.xlsx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 39260-2025 karta.png", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 31764-2023 karta.png", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 39260-2025 FSC-klagomål.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 31764-2023 FSC-klagomål.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 39260-2025 FSC-klagomål mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 31764-2023 FSC-klagomål mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 39260-2025 tillsynsbegäran.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 31764-2023 tillsynsbegäran.docx", "A 31764-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 39260-2025 tillsynsbegäran mail.docx", "A 39260-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 31764-2023 tillsynsbegäran mail.docx", "A 31764-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4792-2025</t>
+          <t>A 72269-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45688.57549768518</v>
+        <v>44543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,16 +1636,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1656,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1666,45 +1670,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp</t>
+          <t>Stor häxört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4792-2025 artfynd.xlsx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 72269-2021 artfynd.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4792-2025 karta.png", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 72269-2021 karta.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4792-2025 FSC-klagomål.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 72269-2021 FSC-klagomål.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4792-2025 FSC-klagomål mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 72269-2021 FSC-klagomål mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4792-2025 tillsynsbegäran.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 72269-2021 tillsynsbegäran.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4792-2025 tillsynsbegäran mail.docx", "A 4792-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 72269-2021 tillsynsbegäran mail.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4746-2025</t>
+          <t>A 59227-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45688.46011574074</v>
+        <v>45988.62253472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1717,16 +1721,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1741,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1751,49 +1755,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Scharlakansskål</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4746-2025 artfynd.xlsx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4746-2025 karta.png", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4746-2025 FSC-klagomål.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4746-2025 FSC-klagomål mail.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4746-2025 tillsynsbegäran.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4746-2025 tillsynsbegäran mail.docx", "A 4746-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/fåglar/A 4746-2025 prioriterade fågelarter.docx", "A 4746-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 4816-2025</t>
+          <t>A 35443-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45688.62052083333</v>
+        <v>44385</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1830,55 +1830,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Klubbfibbla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 4816-2025 artfynd.xlsx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 35443-2021 artfynd.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 4816-2025 karta.png", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 35443-2021 karta.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 4816-2025 FSC-klagomål.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 35443-2021 FSC-klagomål.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 4816-2025 FSC-klagomål mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 35443-2021 FSC-klagomål mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 4816-2025 tillsynsbegäran.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 35443-2021 tillsynsbegäran.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 4816-2025 tillsynsbegäran mail.docx", "A 4816-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 35443-2021 tillsynsbegäran mail.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 59227-2025</t>
+          <t>A 11732-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45988.62253472222</v>
+        <v>45373.69222222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1915,41 +1915,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Scharlakansskål</t>
+          <t>Dvärgjohannesört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 59227-2025 artfynd.xlsx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/artfynd/A 11732-2024 artfynd.xlsx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 59227-2025 karta.png", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/kartor/A 11732-2024 karta.png", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 59227-2025 FSC-klagomål.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomål/A 11732-2024 FSC-klagomål.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 59227-2025 FSC-klagomål mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/klagomålsmail/A 11732-2024 FSC-klagomål mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 59227-2025 tillsynsbegäran.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsyn/A 11732-2024 tillsynsbegäran.docx", "A 11732-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 59227-2025 tillsynsbegäran mail.docx", "A 59227-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1281/tillsynsmail/A 11732-2024 tillsynsbegäran mail.docx", "A 11732-2024")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 29083-2023</t>
+          <t>A 45725-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45105</v>
+        <v>44846</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2189,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45725-2022</t>
+          <t>A 33985-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44846</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49297-2023</t>
+          <t>A 32972-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45210</v>
+        <v>45517.42064814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2265,8 +2265,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>20.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2308,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59918-2022</t>
+          <t>A 20057-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44909</v>
+        <v>45772</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2328,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2360,14 +2365,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33985-2021</t>
+          <t>A 6034-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44378</v>
+        <v>45695.64231481482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2385,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>10.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2417,14 +2422,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17519-2023</t>
+          <t>A 5059-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45036</v>
+        <v>45691.47211805556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2442,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2474,14 +2479,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14058-2025</t>
+          <t>A 29075-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45740.40390046296</v>
+        <v>45104</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2499,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2531,14 +2536,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32972-2024</t>
+          <t>A 2248-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45517.42064814815</v>
+        <v>45673.49231481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2550,13 +2555,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>20.7</v>
+        <v>11.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2593,14 +2593,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 5059-2025</t>
+          <t>A 29247-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45691.47211805556</v>
+        <v>45824</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2650,14 +2650,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29075-2023</t>
+          <t>A 59918-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45104</v>
+        <v>44909</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2707,14 +2707,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8601-2023</t>
+          <t>A 34484-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44977</v>
+        <v>45847.39517361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,8 +2726,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2764,14 +2769,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 31773-2023</t>
+          <t>A 14058-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45118</v>
+        <v>45740.40390046296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2783,13 +2788,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2826,14 +2826,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13754-2022</t>
+          <t>A 8601-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44649</v>
+        <v>44977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2883,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6034-2025</t>
+          <t>A 21767-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45695.64231481482</v>
+        <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2940,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2248-2025</t>
+          <t>A 58337-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45673.49231481482</v>
+        <v>45985.48895833334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>11.7</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21767-2023</t>
+          <t>A 58488-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45065</v>
+        <v>45985.66210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>9.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,14 +3054,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 20057-2025</t>
+          <t>A 58335-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45772</v>
+        <v>45985.48332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3111,14 +3111,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29247-2025</t>
+          <t>A 31773-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45824</v>
+        <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3130,8 +3130,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3168,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28885-2022</t>
+          <t>A 13754-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44749</v>
+        <v>44649</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3225,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16499-2025</t>
+          <t>A 59206-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45751.60246527778</v>
+        <v>45988.60881944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3282,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59733-2023</t>
+          <t>A 28885-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45257</v>
+        <v>44749</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3339,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 55158-2023</t>
+          <t>A 16499-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45237</v>
+        <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3358,13 +3363,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34484-2025</t>
+          <t>A 59733-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45847.39517361111</v>
+        <v>45257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3420,13 +3420,8 @@
           <t>LUND</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3463,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 58337-2025</t>
+          <t>A 55158-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45985.48895833334</v>
+        <v>45237</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3482,8 +3477,13 @@
           <t>LUND</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3520,14 +3520,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58488-2025</t>
+          <t>A 9889-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45985.66210648148</v>
+        <v>46073.368125</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3577,14 +3577,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58335-2025</t>
+          <t>A 44646-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45985.48332175926</v>
+        <v>45189</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3634,14 +3634,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59206-2025</t>
+          <t>A 15984-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45988.60881944445</v>
+        <v>45749</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3691,14 +3691,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44646-2023</t>
+          <t>A 29083-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45189</v>
+        <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3748,14 +3748,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15984-2025</t>
+          <t>A 49297-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45749</v>
+        <v>45210</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3805,14 +3805,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9889-2026</t>
+          <t>A 17519-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46073.368125</v>
+        <v>45036</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -575,7 +575,7 @@
         <v>45630.70673611111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44421</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45721.61657407408</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44740.72620370371</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45448.47032407407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44464</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45889.37043981482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>45688.46011574074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45688.62052083333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45688.57549768518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45988.62253472222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44385</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45373.69222222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44326</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44525</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44846</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44378</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45517.42064814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45772</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>45695.64231481482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>45691.47211805556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45104</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>45673.49231481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45824</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44909</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>45847.39517361111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>45740.40390046296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45065</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45985.48895833334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>45985.66210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>45985.48332175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44649</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45988.60881944445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44749</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45751.60246527778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>45237</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>46073.368125</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45189</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>45749</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>45210</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45036</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
